--- a/data/trans_orig/P33B_R1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R1-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>100222</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82302</v>
+        <v>83007</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119800</v>
+        <v>122338</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1453273332344862</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1193430101858229</v>
+        <v>0.1203646776399023</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1737169505680111</v>
+        <v>0.1773963920644797</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>319</v>
@@ -762,19 +762,19 @@
         <v>177700</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>160363</v>
+        <v>160737</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>196539</v>
+        <v>196829</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2426988323068891</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2190197605135882</v>
+        <v>0.2195305354761476</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.268428348415286</v>
+        <v>0.2688249670395441</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>433</v>
@@ -783,19 +783,19 @@
         <v>277922</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>255215</v>
+        <v>252956</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>307921</v>
+        <v>304812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1954702573449278</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1794999711747517</v>
+        <v>0.1779113216608572</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2165694093749337</v>
+        <v>0.2143832221092073</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>589406</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>569828</v>
+        <v>567290</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>607326</v>
+        <v>606621</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8546726667655137</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.826283049431989</v>
+        <v>0.8226036079355202</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8806569898141772</v>
+        <v>0.8796353223600976</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>918</v>
@@ -833,19 +833,19 @@
         <v>554483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>535644</v>
+        <v>535354</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>571820</v>
+        <v>571446</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7573011676931108</v>
+        <v>0.7573011676931111</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.731571651584714</v>
+        <v>0.7311750329604559</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7809802394864118</v>
+        <v>0.7804694645238525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1533</v>
@@ -854,19 +854,19 @@
         <v>1143889</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1113890</v>
+        <v>1116999</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1166596</v>
+        <v>1168855</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8045297426550722</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7834305906250664</v>
+        <v>0.7856167778907928</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8205000288252483</v>
+        <v>0.822088678339143</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>118947</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99376</v>
+        <v>98819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139553</v>
+        <v>141204</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1133998642685034</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09474183579224993</v>
+        <v>0.09421038003797465</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1330448987725073</v>
+        <v>0.1346185688903181</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>349</v>
@@ -979,19 +979,19 @@
         <v>218447</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>197097</v>
+        <v>197514</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241188</v>
+        <v>240497</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2039964332484697</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1840587685688986</v>
+        <v>0.1844484304939737</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2252330877452419</v>
+        <v>0.2245872610016098</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>483</v>
@@ -1000,19 +1000,19 @@
         <v>337394</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>309946</v>
+        <v>305675</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>369675</v>
+        <v>365903</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.159166588998061</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1462177802564578</v>
+        <v>0.1442028534395288</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1743951049332232</v>
+        <v>0.1726155871020331</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>929970</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>909364</v>
+        <v>907713</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>949541</v>
+        <v>950098</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8866001357314965</v>
+        <v>0.8866001357314967</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8669551012274925</v>
+        <v>0.8653814311096818</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9052581642077502</v>
+        <v>0.9057896199620252</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1167</v>
@@ -1050,19 +1050,19 @@
         <v>852391</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>829650</v>
+        <v>830341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>873741</v>
+        <v>873324</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7960035667515303</v>
+        <v>0.7960035667515304</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7747669122547581</v>
+        <v>0.7754127389983911</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.815941231431101</v>
+        <v>0.8155515695060263</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1997</v>
@@ -1071,19 +1071,19 @@
         <v>1782361</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1750080</v>
+        <v>1753852</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1809809</v>
+        <v>1814080</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.840833411001939</v>
+        <v>0.8408334110019391</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8256048950667769</v>
+        <v>0.8273844128979669</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8537822197435421</v>
+        <v>0.8557971465604712</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>85060</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67773</v>
+        <v>67880</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>106016</v>
+        <v>106938</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1059178676215896</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08439223915291019</v>
+        <v>0.08452474846744677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1320131445927216</v>
+        <v>0.1331613818453727</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>184</v>
@@ -1196,19 +1196,19 @@
         <v>138787</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>119482</v>
+        <v>119657</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161116</v>
+        <v>158810</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.170864939163946</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1470978851535447</v>
+        <v>0.1473134463777973</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1983549000095294</v>
+        <v>0.1955168878388112</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>265</v>
@@ -1217,19 +1217,19 @@
         <v>223846</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>196413</v>
+        <v>199262</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>251042</v>
+        <v>254718</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1385760663399299</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1215928802819283</v>
+        <v>0.1233569813085638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1554120357949744</v>
+        <v>0.1576877669395707</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>718013</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>697057</v>
+        <v>696135</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>735300</v>
+        <v>735193</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8940821323784103</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.867986855407278</v>
+        <v>0.8668386181546279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9156077608470896</v>
+        <v>0.9154752515325533</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>863</v>
@@ -1267,19 +1267,19 @@
         <v>673472</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>651143</v>
+        <v>653449</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>692777</v>
+        <v>692602</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.829135060836054</v>
+        <v>0.8291350608360539</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8016450999904705</v>
+        <v>0.804483112161189</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8529021148464552</v>
+        <v>0.8526865536222028</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1458</v>
@@ -1288,19 +1288,19 @@
         <v>1391486</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1364290</v>
+        <v>1360614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1418919</v>
+        <v>1416070</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8614239336600703</v>
+        <v>0.8614239336600702</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8445879642050256</v>
+        <v>0.842312233060429</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8784071197180717</v>
+        <v>0.8766430186914359</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>145119</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125609</v>
+        <v>125026</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>169285</v>
+        <v>169661</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1465751678483655</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1268701705504312</v>
+        <v>0.1262810468854761</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1709844161597182</v>
+        <v>0.1713643359460158</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>388</v>
@@ -1413,19 +1413,19 @@
         <v>259059</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>233699</v>
+        <v>236060</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>283905</v>
+        <v>284160</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2317682999772346</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2090800281719429</v>
+        <v>0.2111917451952269</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2539971803613015</v>
+        <v>0.2542246555264828</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>557</v>
@@ -1434,19 +1434,19 @@
         <v>404178</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>374748</v>
+        <v>372076</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>437481</v>
+        <v>439499</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1917521641015875</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.177790016630669</v>
+        <v>0.1765222656552812</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2075519809882175</v>
+        <v>0.2085094387435137</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>844943</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>820777</v>
+        <v>820401</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>864453</v>
+        <v>865036</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8534248321516346</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8290155838402818</v>
+        <v>0.8286356640539841</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8731298294495687</v>
+        <v>0.873718953114524</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1172</v>
@@ -1484,19 +1484,19 @@
         <v>858691</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>833845</v>
+        <v>833590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>884051</v>
+        <v>881690</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7682317000227654</v>
+        <v>0.7682317000227655</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7460028196386982</v>
+        <v>0.7457753444735171</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7909199718280568</v>
+        <v>0.7888082548047731</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2009</v>
@@ -1505,19 +1505,19 @@
         <v>1703634</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1670331</v>
+        <v>1668313</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1733064</v>
+        <v>1735736</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8082478358984125</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7924480190117819</v>
+        <v>0.7914905612564864</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8222099833693307</v>
+        <v>0.8234777343447188</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>449347</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>404729</v>
+        <v>410440</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>487484</v>
+        <v>491703</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1272332505721102</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1145995139731708</v>
+        <v>0.1162167825496997</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1380317157736684</v>
+        <v>0.1392263705657714</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1240</v>
@@ -1630,19 +1630,19 @@
         <v>793993</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>750636</v>
+        <v>753434</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>839314</v>
+        <v>837902</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2126938985933597</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2010795273596645</v>
+        <v>0.2018290135193979</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2248343909966031</v>
+        <v>0.2244563118292672</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1738</v>
@@ -1651,19 +1651,19 @@
         <v>1243340</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1186748</v>
+        <v>1184442</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1300950</v>
+        <v>1305750</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1711478928820818</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1633578662870034</v>
+        <v>0.1630404466656531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1790780461591763</v>
+        <v>0.1797387385654656</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3082333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3044196</v>
+        <v>3039977</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3126951</v>
+        <v>3121240</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8727667494278898</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8619682842263318</v>
+        <v>0.8607736294342291</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8854004860268291</v>
+        <v>0.8837832174503005</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4120</v>
@@ -1701,19 +1701,19 @@
         <v>2939037</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2893716</v>
+        <v>2895128</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2982394</v>
+        <v>2979596</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7873061014066403</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7751656090033968</v>
+        <v>0.7755436881707322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7989204726403355</v>
+        <v>0.798170986480602</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6997</v>
@@ -1722,19 +1722,19 @@
         <v>6021370</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5963760</v>
+        <v>5958960</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6077962</v>
+        <v>6080268</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8288521071179181</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8209219538408237</v>
+        <v>0.8202612614345344</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8366421337129967</v>
+        <v>0.836959553334347</v>
       </c>
     </row>
     <row r="18">
